--- a/biology/Botanique/Chèvrefeuille/Chèvrefeuille.xlsx
+++ b/biology/Botanique/Chèvrefeuille/Chèvrefeuille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vrefeuille</t>
+          <t>Chèvrefeuille</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lonicera
 Les Chèvrefeuilles (genre Lonicera) sont des arbustes ou lianes de la famille des caprifoliacées. Certaines espèces sont aussi nommées communément camérisiers. On en connaît environ 200 espèces dans les régions tempérées de l'hémisphère nord et les régions subtropicales. L'habitat de la plupart des espèces de chèvrefeuilles est la lisière des forêts et, par extension, les haies, bords de chemins creux. Les chèvrefeuilles, autochtones ou exotiques, sont fréquemment utilisés pour former des haies ou parois décoratives.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vrefeuille</t>
+          <t>Chèvrefeuille</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Lonicera a été donné en 1703, à la place du nom originel Caprifolium, par Charles Plumier (1646-1704), en hommage à Adam Lonitzer (1528-1586), botaniste et médecin allemand[1],[2]. Carl von Linné a gardé ce nom de genre tout en mentionnant, comme  épithète spécifique pour l’espèce type du genre, le nom générique originel, nommant ainsi l'espèce Lonicera caprifolium[3],[note 1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Lonicera a été donné en 1703, à la place du nom originel Caprifolium, par Charles Plumier (1646-1704), en hommage à Adam Lonitzer (1528-1586), botaniste et médecin allemand,. Carl von Linné a gardé ce nom de genre tout en mentionnant, comme  épithète spécifique pour l’espèce type du genre, le nom générique originel, nommant ainsi l'espèce Lonicera caprifolium,[note 1].
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vrefeuille</t>
+          <t>Chèvrefeuille</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,29 +557,31 @@
           <t>Écologie, faune associée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme les autres lianes, ils offrent un habitat supplémentaire aux oiseaux, et facilitent le déplacement dans les arbres et buissons de certains insectes et petits mammifères. Leurs fleurs sont surtout liées à diverses espèces d'insectes de l'environnement nocturne, souvent à longue trompe, qui sont en Europe :
-des Sphinx, dont le Sphinx gazé (également nommé Sphinx du chèvrefeuille), le Sphinx bourdon, le Sphinx phœnix et le Sphinx du troène[4].
-Les feuilles sont mangées par des noctuelles, notamment la Cléophane du chèvrefeuille, le Iota, la Noctuelle du camérisier, la Noctuelle aréolée, la Noctuelle rameuse (inféodée au chèvrefeuille et surtout trouvée sur L. xylosteum). Les chenilles de ces papillons sont dites cryptiques (camouflées) et ne sont généralement actives que la nuit[4].
+des Sphinx, dont le Sphinx gazé (également nommé Sphinx du chèvrefeuille), le Sphinx bourdon, le Sphinx phœnix et le Sphinx du troène.
+Les feuilles sont mangées par des noctuelles, notamment la Cléophane du chèvrefeuille, le Iota, la Noctuelle du camérisier, la Noctuelle aréolée, la Noctuelle rameuse (inféodée au chèvrefeuille et surtout trouvée sur L. xylosteum). Les chenilles de ces papillons sont dites cryptiques (camouflées) et ne sont généralement actives que la nuit.
 Une quinzaine de papillons de la famille des Geometridae produisent des chenilles arpenteuses qui peuvent se nourrir de chèvrefeuille (sans en être dépendant, sauf l'Ennomos du lilas qui lui semble plus associé).
-Les espèces cultivées sont parfois endommagées par un microlépidoptère, l'Ypsolophe dentelé[4].
+Les espèces cultivées sont parfois endommagées par un microlépidoptère, l'Ypsolophe dentelé.
 Des papillons de jour (rhopalocères), dont quelques Nymphalidés, produisent des chenilles qui grandissent sur le chèvrefeuille. Ce sont par exemple :
 le Sylvain azuré (thermophile) ;
-le Damier du chèvrefeuille, papillon d'altitude, trouvé dans les Alpes en France, dans les départements de Savoie, Haute-Savoie, Isère et Hautes-Alpes. Ses chenilles mangent les feuilles de L. caerulea[4] ;
-le Petit sylvain, surtout sur L. xylosteum[4].
+le Damier du chèvrefeuille, papillon d'altitude, trouvé dans les Alpes en France, dans les départements de Savoie, Haute-Savoie, Isère et Hautes-Alpes. Ses chenilles mangent les feuilles de L. caerulea ;
+le Petit sylvain, surtout sur L. xylosteum.
 D'autres insectes que des papillons apprécient le chèvrefeuille :
-le jour, certains bourdons et xylocopes peuvent s'y nourrir de nectar en perforant les corolles trop longues pour qu'ils y aient directement accès[4]. Quelques papillons de jour s'y nourrissent, mais c'est la nuit que son odeur attire les pollinisateurs ;
-plusieurs espèces de tenthrèdes (Hyménoptères symphytes) produisent des larves de 2 cm maximum qui ressemblent à des chenilles, et qui consomment aussi les feuilles de chèvrefeuille. C'est le cas en France de Tenthredo vespa (nl) et T. livida, qui se cachent le jour, enroulés sous les feuilles, pour s'activer la nuit[4] ;
-en France, au moins 4 espèces de Cimbicidés (du genre Abia) consomment le chèvrefeuille. Ce sont : A. lonicerae, A. fasciata, A. aurulenta et A. mutica, Abia mutica étant inféodée à L. periclymenum[4] ;
-Cicadelles (opophages), dont Ficocyba ficaria qui dépendent du figuier Ficus carica l'été, mais de chèvrefeuilles l'hiver, alors que Empoasca apicalis en dépend l'été, avant d'émigrer vers l'aulne blanc, le genévrier et l'épicéa commun à partir de l'automne[4] ;
-des pucerons se développent sous les feuilles de Lonicera, dont le Puceron du Chèvrefeuille et le puceron du fenouil, proche du précédent, se développant sur L. xylosteum uniquement. Des aleurodes et plus rarement des cochenilles (Cochenille du cornouiller et Cochenille à carapace du pêcher) sucent également la sève du Chèvrefeuille. Ces 3 groupes d'insectes opophages peuvent se montrer nombreux quand leurs prédateurs sont absents. Leur miellat peuvent alors noircir les feuilles de fumagine et freiner l'expansion de chèvrefeuilles d'ornement[4] ;
-un très petit bupreste, l'Agrile bleuâtre, vit (non exclusivement) sur cette plante (dans toute la France métropolitaine). Sa larve vit dans les branches mortes ou sénescentes, d'où l'adulte émerge en juin-juillet[4] ;
+le jour, certains bourdons et xylocopes peuvent s'y nourrir de nectar en perforant les corolles trop longues pour qu'ils y aient directement accès. Quelques papillons de jour s'y nourrissent, mais c'est la nuit que son odeur attire les pollinisateurs ;
+plusieurs espèces de tenthrèdes (Hyménoptères symphytes) produisent des larves de 2 cm maximum qui ressemblent à des chenilles, et qui consomment aussi les feuilles de chèvrefeuille. C'est le cas en France de Tenthredo vespa (nl) et T. livida, qui se cachent le jour, enroulés sous les feuilles, pour s'activer la nuit ;
+en France, au moins 4 espèces de Cimbicidés (du genre Abia) consomment le chèvrefeuille. Ce sont : A. lonicerae, A. fasciata, A. aurulenta et A. mutica, Abia mutica étant inféodée à L. periclymenum ;
+Cicadelles (opophages), dont Ficocyba ficaria qui dépendent du figuier Ficus carica l'été, mais de chèvrefeuilles l'hiver, alors que Empoasca apicalis en dépend l'été, avant d'émigrer vers l'aulne blanc, le genévrier et l'épicéa commun à partir de l'automne ;
+des pucerons se développent sous les feuilles de Lonicera, dont le Puceron du Chèvrefeuille et le puceron du fenouil, proche du précédent, se développant sur L. xylosteum uniquement. Des aleurodes et plus rarement des cochenilles (Cochenille du cornouiller et Cochenille à carapace du pêcher) sucent également la sève du Chèvrefeuille. Ces 3 groupes d'insectes opophages peuvent se montrer nombreux quand leurs prédateurs sont absents. Leur miellat peuvent alors noircir les feuilles de fumagine et freiner l'expansion de chèvrefeuilles d'ornement ;
+un très petit bupreste, l'Agrile bleuâtre, vit (non exclusivement) sur cette plante (dans toute la France métropolitaine). Sa larve vit dans les branches mortes ou sénescentes, d'où l'adulte émerge en juin-juillet ;
 un petit longicorne filiforme, l'Obérée pupillée, est (pour sa larve) inféodé à quelques espèces de chèvrefeuilles (L. caprifolium, L. tatarica, L. xylosteum et L. etrusca) ;
-divers charançons, dont Otiorhynchus clavipes qui produit des larves pouvant endommager les racines de plusieurs espèces de chèvrefeuille, alors que l'adulte (nocturne) se nourrit sur les feuilles en y creusant des « entailles marginales semi-circulaires caractéristiques »[4] ;
-On y trouve aussi des moucherons (quelques Cécidomyies, dont Contarinia lonicerae, ou diverses espèces de Dasineuraet Macrolabis). De très petites galles parenchymateuses peuvent abriter une larve de Dasineura xylostei (encore méconnu), de même pour Dasineura excavans sur les feuilles de L. xylosteum[4].La Mouche mineuse des chèvrefeuilles des bois (1,5 à 2,2 mm) pond des œufs d'où émergent des larves mineuses creusant en été des galeries (« Mines ») dans l'épaisseur de la feuille où l'on voit par transparence la larve blanche[4]. Une autre espèce de mouche mineuse, Aulagromyza hendeliana, est plus précoce (galeries dès avril) et se nymphose hors de la feuille[4].
-Les chèvrefeuilles sont des plantes-hôtes de Rhagoletis cerasi, la mouche du cerisier[5].
-L'OPIE (Office pour les insectes et leur environnement) signale en 2009[4] un développement récent apparent de la Sésie du chèvrefeuille (facilement confondue avec un Hyménoptère), à partir des Alpes vers le reste de la France. Sa chenille se développe très lentement (2 à 3 ans) et uniquement sur certains chèvrefeuilles.
+divers charançons, dont Otiorhynchus clavipes qui produit des larves pouvant endommager les racines de plusieurs espèces de chèvrefeuille, alors que l'adulte (nocturne) se nourrit sur les feuilles en y creusant des « entailles marginales semi-circulaires caractéristiques » ;
+On y trouve aussi des moucherons (quelques Cécidomyies, dont Contarinia lonicerae, ou diverses espèces de Dasineuraet Macrolabis). De très petites galles parenchymateuses peuvent abriter une larve de Dasineura xylostei (encore méconnu), de même pour Dasineura excavans sur les feuilles de L. xylosteum.La Mouche mineuse des chèvrefeuilles des bois (1,5 à 2,2 mm) pond des œufs d'où émergent des larves mineuses creusant en été des galeries (« Mines ») dans l'épaisseur de la feuille où l'on voit par transparence la larve blanche. Une autre espèce de mouche mineuse, Aulagromyza hendeliana, est plus précoce (galeries dès avril) et se nymphose hors de la feuille.
+Les chèvrefeuilles sont des plantes-hôtes de Rhagoletis cerasi, la mouche du cerisier.
+L'OPIE (Office pour les insectes et leur environnement) signale en 2009 un développement récent apparent de la Sésie du chèvrefeuille (facilement confondue avec un Hyménoptère), à partir des Alpes vers le reste de la France. Sa chenille se développe très lentement (2 à 3 ans) et uniquement sur certains chèvrefeuilles.
 </t>
         </is>
       </c>
@@ -576,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vrefeuille</t>
+          <t>Chèvrefeuille</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -594,9 +610,11 @@
           <t>Toxicologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les chèvrefeuilles seraient toxiques par leurs baies[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chèvrefeuilles seraient toxiques par leurs baies.
 </t>
         </is>
       </c>
@@ -607,7 +625,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vrefeuille</t>
+          <t>Chèvrefeuille</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -627,8 +645,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liste selon les divers sites
-Selon The Plant List            (1 mai 2020)[7] :
+          <t>Liste selon les divers sites</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (1 mai 2020) :
 Lonicera acuminata Wall.
 Lonicera albiflora Torr. &amp; A. Gray
 Lonicera alpigena L.
@@ -732,7 +755,7 @@
 Lonicera webbiana Wall. ex DC.
 Lonicera xylosteum L.
 Lonicera yunnanensis Franch.
-Selon Tropicos                                           (1 mai 2020)[8] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (1 mai 2020) (Attention liste brute contenant possiblement des synonymes) :
 Lonicera acrophila H. Lév.
 Lonicera acuminata Wall.
 Lonicera adenophora Franch.
@@ -1069,7 +1092,43 @@
 Lonicera × purpusii Rehder
 Lonicera × subarctica Pojark.
 Lonicera × xylosteoides Tausch
-Espèces du genre Lonicera par zones géographiques
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chèvrefeuille</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A8vrefeuille</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Espèces du genre Lonicera par zones géographiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Flore européenne
 Flore européenne
 Lonicera alpigena ou Lonicera glutinosa Vis Chèvrefeuille des Alpes
@@ -1092,7 +1151,7 @@
 Flore d'Afrique du Nord
 Lonicera biflora
 Flore de Chine
-Flore de Chine, d'après eFloras[9]. 57 espèces, dont 23 endémiques.
+Flore de Chine, d'après eFloras. 57 espèces, dont 23 endémiques.
 Lonicera acuminata Wallich in Roxburgh, 1824.
 Lonicera angustifolia Wallich ex Candolle, 1830.
 Lonicera alpigena complexe d'espèces
@@ -1164,45 +1223,84 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Ch%C3%A8vrefeuille</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chèvrefeuille</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ch%C3%A8vrefeuille</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Le chèvrefeuille dans la culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Caprifolium, nom historique du Lonicera
-En 1888 Legrand, déplorant le remplacement des noms de genre de Tournefort, nous dit « Si Linné est le créateur de la combinaison binaire, n'oublions pas que Tournefort est le créateur du genre » et il cite notamment, en le regrettant, le remplacement de Caprifolium par Lonicera[10].
-Le mot caprifolium, désignant à l'origine le chèvrefeuille, remonte au Haut Moyen Âge. On trouve dans un manuscrit du  IXe siècle, le  Codex Parisinus Latinus, une liste de plantes dont Dorcadis caprolus dont on ne peut être sûr qu’il se réfère au caprifolium[11].
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caprifolium, nom historique du Lonicera</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>En 1888 Legrand, déplorant le remplacement des noms de genre de Tournefort, nous dit « Si Linné est le créateur de la combinaison binaire, n'oublions pas que Tournefort est le créateur du genre » et il cite notamment, en le regrettant, le remplacement de Caprifolium par Lonicera.
+Le mot caprifolium, désignant à l'origine le chèvrefeuille, remonte au Haut Moyen Âge. On trouve dans un manuscrit du  IXe siècle, le  Codex Parisinus Latinus, une liste de plantes dont Dorcadis caprolus dont on ne peut être sûr qu’il se réfère au caprifolium.
 Dans nombre d’encyclopédies médicales médiévales, qui ont été compilées à la Renaissance, on trouve le nom de  caprifolium.
-Un écrit de Simón Januensis, encyclopédiste du XIIIe siècle, nous dit, à propos d'une plante qu'il nous est difficile d'identifier, « Periclimenos [...] certains l'appellent caprifolium »[12].
-Le nom est mentionné aussi dans Matthaeus Silvaticus (1280-1342)[13] dans son Pandectae Medicinae[note 2],[14].
-[note 3] appellent la plante caprifolium.
-Noms vernaculaires, populaires ou locaux du chèvrefeuille
-Le chèvrefeuille était appelé par Dioscoride (40-90 ap. J.-C), médecin et botaniste grec, periclymenus [note 4].
-Cependant, la plante désignée par le mot caprifolium a pu être confondue avec le troène (Ligustrum). En effet, dans un dictionnaire étymologique allemand, nous trouvons « caprifolium liguster », « liguster » étant le nom commun allemand pour « troène »[15].
-Une multitude de noms vernaculaires, noms communs ou noms locaux ont été donnés au Caprifoilum, citons notamment « Chamécerisier » ou « Camécerisier » [16].
+Un écrit de Simón Januensis, encyclopédiste du XIIIe siècle, nous dit, à propos d'une plante qu'il nous est difficile d'identifier, « Periclimenos [...] certains l'appellent caprifolium ».
+Le nom est mentionné aussi dans Matthaeus Silvaticus (1280-1342) dans son Pandectae Medicinae[note 2],.
+[note 3] appellent la plante caprifolium.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chèvrefeuille</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A8vrefeuille</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Le chèvrefeuille dans la culture</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires, populaires ou locaux du chèvrefeuille</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le chèvrefeuille était appelé par Dioscoride (40-90 ap. J.-C), médecin et botaniste grec, periclymenus [note 4].
+Cependant, la plante désignée par le mot caprifolium a pu être confondue avec le troène (Ligustrum). En effet, dans un dictionnaire étymologique allemand, nous trouvons « caprifolium liguster », « liguster » étant le nom commun allemand pour « troène ».
+Une multitude de noms vernaculaires, noms communs ou noms locaux ont été donnés au Caprifoilum, citons notamment « Chamécerisier » ou « Camécerisier » .
 Les anglophones l’appellent « honeysuckle », littéralement « suceur de miel » probablement en raison de son caractère mellifère.
-La Flore Populaire d’Eugène Rolland (1846-1909) de 1906 fait une compilation exhaustive des noms donnés à plusieurs espèces de chèvrefeuille, en Europe francophone et dans les régions et villages de France allant de Capra mater  à « cerisier des Alpes »[17]. Parmi plus de 200 appellations, citons : 
+La Flore Populaire d’Eugène Rolland (1846-1909) de 1906 fait une compilation exhaustive des noms donnés à plusieurs espèces de chèvrefeuille, en Europe francophone et dans les régions et villages de France allant de Capra mater  à « cerisier des Alpes ». Parmi plus de 200 appellations, citons : 
 cabrifuelh (ancien provençal),
 cabrofuelho (Laguiole, Aveyron),
 chevrèfël (Pas-de-Calais),
@@ -1211,13 +1309,117 @@
 tchabro-flour (Ardèche),
 queue de pipe (Luxembourg),
 més dé lébré (Gascogne),
-bô de hhmèl’ (Ban de la Roche ancienne commune du Bas-Rhin),etc.[17].
-Langage des fleurs
-Dans le langage des fleurs, le chèvrefeuille symbolise l'amitié et l'amour[18]. Par exemple, dans Chevrefoil, de Marie de France (poétesse), le chèvrefeuille est associé au coudrier pour symboliser l'amour que se portent Tristan et Iseut. 
-Calendrier
-Le 23e jour du mois de prairial du calendrier républicain / révolutionnaire français y est dénommé jour du chèvrefeuille[19], généralement chaque 11 juin du calendrier grégorien.
-Cinéma
-Chèvrefeuille (en), un long métrage musical réalisé par Luis César Amadori en 1938.</t>
+bô de hhmèl’ (Ban de la Roche ancienne commune du Bas-Rhin),etc..</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chèvrefeuille</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A8vrefeuille</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Le chèvrefeuille dans la culture</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Langage des fleurs</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le langage des fleurs, le chèvrefeuille symbolise l'amitié et l'amour. Par exemple, dans Chevrefoil, de Marie de France (poétesse), le chèvrefeuille est associé au coudrier pour symboliser l'amour que se portent Tristan et Iseut. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Chèvrefeuille</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A8vrefeuille</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Le chèvrefeuille dans la culture</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Calendrier</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 23e jour du mois de prairial du calendrier républicain / révolutionnaire français y est dénommé jour du chèvrefeuille, généralement chaque 11 juin du calendrier grégorien.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Chèvrefeuille</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A8vrefeuille</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Le chèvrefeuille dans la culture</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Chèvrefeuille (en), un long métrage musical réalisé par Luis César Amadori en 1938.</t>
         </is>
       </c>
     </row>
